--- a/Data_Science_Introduction_Topics_Index.xlsx
+++ b/Data_Science_Introduction_Topics_Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Felix_ASUS_Docs\1A_Python_Projects\DATA601_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95930BF2-C528-44E0-A61B-46E1A9F1974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BC5BD-712C-4EB7-98B4-8A21856DA3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data_Science_Introduction_Topics_Index.xlsx
+++ b/Data_Science_Introduction_Topics_Index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Felix_ASUS_Docs\1A_Python_Projects\DATA601_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BC5BD-712C-4EB7-98B4-8A21856DA3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652AE07-DEF4-4D9D-9384-16E983B05DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
   <si>
     <t>Topic</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>_Data_Visualization</t>
-  </si>
-  <si>
-    <t>_Object_Oriented_Programming</t>
   </si>
   <si>
     <t>_Math_wNumpy</t>
@@ -204,10 +201,6 @@
   </si>
   <si>
     <t>Relational Databases</t>
-  </si>
-  <si>
-    <t>- Classes and Methods
-- Class attributes/characteristics/features</t>
   </si>
   <si>
     <t>Instructor defined list of random number as a minimum reproducible example (e.g., 10 numbers), get unique values, iterate and create a new list of odd and another of even values. Instructor expanded list of 10,000 values repeat. Note that a function can be defined or the code copied twice.</t>
@@ -266,9 +259,6 @@
   </si>
   <si>
     <t>https://docs.python.org/3/library/random.html#module-random</t>
-  </si>
-  <si>
-    <t>Jupyter Notebook Development Environment Overview amd Python Overview</t>
   </si>
   <si>
     <t>Jupyter Notebook Markdown Language</t>
@@ -361,9 +351,6 @@
   </si>
   <si>
     <t>HW Explore Datasets for Project 2</t>
-  </si>
-  <si>
-    <t>Release HW3 and Quiz 1; due midnight of the day of Lecture 5.</t>
   </si>
   <si>
     <t>Introduction to Pandas</t>
@@ -424,9 +411,6 @@
 - MultiIndex Dataframes, stacking, unstacking</t>
   </si>
   <si>
-    <t>Release HW4: Due Day of Lecture 6</t>
-  </si>
-  <si>
     <t>Release Project 2: Details</t>
   </si>
   <si>
@@ -445,9 +429,6 @@
   </si>
   <si>
     <t>Data Science Example: Story Telling and  Data Cleaning</t>
-  </si>
-  <si>
-    <t>1_Data_Cleaning_Wrangling</t>
   </si>
   <si>
     <t>2_Exploratory_Data_Analysis</t>
@@ -557,15 +538,6 @@
   </si>
   <si>
     <t>_Intro_Unsupervised_ML_Clustering</t>
-  </si>
-  <si>
-    <t>- Version Control: Github, Windows Git Bash Shell or Git for MAC or Linux.
-- Communicating outputs, results and findings to support decision making, communicating data visualization (graph, charts, histograms), converting data into actionable information.
-- Group discussion and thoughts on use of tools such as ChatGPT and other tools to identify AI generated text.
-- Webframeworks (e.g., Flask, DJANGO) and Web app development and deployment.
-- Freezing environment.
-- Deploying functions in .py files and calling from Notebooks and other programs.
-- Docker and containers</t>
   </si>
   <si>
     <t>Introduction to Natural Language Processing</t>
@@ -634,16 +606,58 @@
     </r>
   </si>
   <si>
-    <t>Generative AI HW Due and Discussion</t>
-  </si>
-  <si>
-    <t>HW: Generative AI Essay:
-Use any of the text generative AI tools (e.g., Bing Chat, ChatGPT) to develop an essay, 1 to 3 pages long, that discuss the following questions: (1) What is data science? (2) Discuss some ethical concerns with the use of data science tools (e.g., AI/ML/NLP). (3) How should I reference AI-generated outputs? (4) Is it legal to use generative AI? (5) Is it Ethical to use generative AI? (6) Write a Poem of the topic of your choosing. Include References.</t>
-  </si>
-  <si>
     <t>This essay will be used to start the discussion into Ethics of AI.
 Include the following satatement in the Title or Heading of your document: "This document was generated in part/full using Generative Artificial Intelligence for the purproses of exploring ethical concerns for UMBC Data 601 course." 
 Include a short paragraph about methodology that may include date of running the prompt, used prompts, edits, tools used, etc.</t>
+  </si>
+  <si>
+    <t>Release HW3; due midnight of the day of Lecture 5.</t>
+  </si>
+  <si>
+    <t>Release HW4 and Quiz 1: Due Day of Lecture 6</t>
+  </si>
+  <si>
+    <t>OPT_Object_Oriented_Programming</t>
+  </si>
+  <si>
+    <t>- Optional notebook that discusses the concepts of Python as an object oriented programming language. These concepts are mostly used to create large applications.
+- Classes and Methods
+- Class attributes/characteristics/features</t>
+  </si>
+  <si>
+    <t>1_Data_Cleaning_Template</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook Development Environment Overview an\d Python Overview</t>
+  </si>
+  <si>
+    <t>Excercise Class Discussion: Generative AI Essay:
+Use any of the text generative AI tools (e.g., Bing Chat, ChatGPT) to develop an essay, 1 to 3 pages long, that discuss the following questions: (1) What is data science? (2) Discuss some ethical concerns with the use of data science tools (e.g., AI/ML/NLP). (3) How should I reference AI-generated outputs? (4) Is it legal to use generative AI? (5) Is it Ethical to use generative AI? (6) Write a Poem of the topic of your choosing. Include References.</t>
+  </si>
+  <si>
+    <t>- Other data science platforms: NVIDIA, AWS, GCP, MS Azure, Tableau, Palantir Foundry, MicroStrategy, Apache Hadoop, Spark, etc.
+- Version Control: Github, Windows Git Bash Shell or Git for MAC or Linux.
+- Communicating outputs, results and findings to support decision making, communicating data visualization (graph, charts, histograms), converting data into actionable information.
+- Group discussion and thoughts on use of tools such as ChatGPT and other tools to identify AI generated text.
+- Webframeworks (e.g., Flask, DJANGO) and Web app development and deployment.
+- Freezing environment.
+- Deploying functions in .py files and calling from Notebooks and other programs.
+- Docker and containers</t>
+  </si>
+  <si>
+    <t>_NLP_Similarity_Ranking.ipynb</t>
+  </si>
+  <si>
+    <t>NLP Similarity Ranking</t>
+  </si>
+  <si>
+    <t>_Natural_Language_Processing_Introduction.ipynb</t>
+  </si>
+  <si>
+    <t>- Introduction to using similarity metrics for ranking text data.</t>
+  </si>
+  <si>
+    <t>- Introduction to natural language processing (NLP).</t>
   </si>
 </sst>
 </file>
@@ -752,7 +766,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1055,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,13 +1093,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1087,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1095,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1119,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>4</v>
@@ -1130,16 +1151,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="174" x14ac:dyDescent="0.35">
@@ -1154,10 +1175,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
@@ -1165,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
@@ -1173,16 +1194,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
@@ -1190,10 +1211,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1208,10 +1229,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1219,17 +1240,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="8">
         <f>C9+1</f>
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -1237,17 +1258,17 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="8">
         <f>C10+1</f>
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="145" x14ac:dyDescent="0.35">
@@ -1255,20 +1276,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12" si="0">C11+1</f>
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -1276,13 +1297,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1290,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>4</v>
       </c>
@@ -1305,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1316,17 +1337,17 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
         <v>11</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1334,17 +1355,17 @@
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8">
         <f>C16+1</f>
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>7</v>
@@ -1355,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1375,13 +1396,13 @@
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="290" x14ac:dyDescent="0.35">
@@ -1389,25 +1410,25 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" s="8">
         <f>C20+1</f>
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1415,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1428,20 +1449,20 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="8">
         <f>C21+1</f>
         <v>15</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="174" x14ac:dyDescent="0.35">
@@ -1449,20 +1470,20 @@
         <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8">
         <f>C25+1</f>
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1470,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
@@ -1488,10 +1509,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1499,14 +1520,14 @@
         <v>7</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C29" s="8">
         <f>C28+1</f>
         <v>18</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F29" s="10"/>
     </row>
@@ -1515,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F30" s="10"/>
     </row>
@@ -1524,16 +1545,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F31" s="10"/>
     </row>
@@ -1542,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1564,17 +1585,17 @@
         <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="8">
         <f>C29+1</f>
         <v>19</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1582,17 +1603,17 @@
         <v>9</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="8">
         <f>C34+1</f>
         <v>20</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1600,17 +1621,17 @@
         <v>9</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="8">
         <f>C35+1</f>
         <v>21</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1618,10 +1639,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1629,7 +1650,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1637,20 +1658,20 @@
         <v>10</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="8">
         <f>C36+1</f>
         <v>22</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1658,17 +1679,17 @@
         <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="8">
         <f>C39+1</f>
         <v>23</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1681,17 +1702,17 @@
         <v>11</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C42" s="8">
         <f>C40+1</f>
         <v>24</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -1699,20 +1720,20 @@
         <v>11</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C43" s="8">
         <f>C42+1</f>
         <v>25</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1720,41 +1741,51 @@
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C44" s="8">
         <f>C43+1</f>
         <v>26</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>11</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>12</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="8">
+        <f>C44+1</f>
+        <v>27</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>12</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>148</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1762,273 +1793,280 @@
         <v>12</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C48" s="8">
-        <f>C44+1</f>
-        <v>27</v>
+        <f>C46+1</f>
+        <v>28</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>12</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>13</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="8">
         <f>C48+1</f>
-        <v>28</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
-        <v>12</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>13</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="8">
-        <f>C49+1</f>
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>13</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>14</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="C54" s="8">
+        <f>C50+1</f>
+        <v>30</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>14</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="8">
-        <f>C51+1</f>
-        <v>30</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
-        <v>14</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>15</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="C56" s="8">
+        <v>31</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>134</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>15</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>44</v>
+        <v>151</v>
+      </c>
+      <c r="C57" s="8">
+        <v>32</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>44</v>
+        <v>150</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="C59" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>"MOD(ROW($A)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD60 A61:D61 F61:XFD61 A62:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A1:XFD21 A22:B23 D22:XFD23 A24:XFD60 A61:D61 F61:XFD61 A62:XFD1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD($A1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B15:B16 B18">
     <cfRule type="expression" priority="5">
       <formula>"MOD($A)=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>MOD($A23,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">

--- a/Data_Science_Introduction_Topics_Index.xlsx
+++ b/Data_Science_Introduction_Topics_Index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Felix_ASUS_Docs\1A_Python_Projects\DATA601_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652AE07-DEF4-4D9D-9384-16E983B05DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7FD3D5-B985-40CD-A027-8681FFF8006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
   <si>
     <t>Topic</t>
   </si>
@@ -79,9 +79,6 @@
     <t>_Math_wNumpy</t>
   </si>
   <si>
-    <t>Introduction to Unsupervised Machine Learning: Clustering Algorihtms</t>
-  </si>
-  <si>
     <t>Data Science Example: Exploratory Data Analysis</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
   </si>
   <si>
     <t>Notebook Number</t>
-  </si>
-  <si>
-    <t>_Lecture_14_Mini_Lab</t>
-  </si>
-  <si>
-    <t>Filter a dataset and create a wordcloud.</t>
   </si>
   <si>
     <t>_Data_Science_Concenpts_Workflows.ppt</t>
@@ -556,9 +547,6 @@
 - NLP Models (e.g., Bag of words, transformers)
 - Term Vectorization (e.g.,TFIDF or Count vectorization)
 - Wordclouds</t>
-  </si>
-  <si>
-    <t>Release HW 6: Due 1 week</t>
   </si>
   <si>
     <t>HW1:
@@ -631,10 +619,6 @@
     <t>Jupyter Notebook Development Environment Overview an\d Python Overview</t>
   </si>
   <si>
-    <t>Excercise Class Discussion: Generative AI Essay:
-Use any of the text generative AI tools (e.g., Bing Chat, ChatGPT) to develop an essay, 1 to 3 pages long, that discuss the following questions: (1) What is data science? (2) Discuss some ethical concerns with the use of data science tools (e.g., AI/ML/NLP). (3) How should I reference AI-generated outputs? (4) Is it legal to use generative AI? (5) Is it Ethical to use generative AI? (6) Write a Poem of the topic of your choosing. Include References.</t>
-  </si>
-  <si>
     <t>- Other data science platforms: NVIDIA, AWS, GCP, MS Azure, Tableau, Palantir Foundry, MicroStrategy, Apache Hadoop, Spark, etc.
 - Version Control: Github, Windows Git Bash Shell or Git for MAC or Linux.
 - Communicating outputs, results and findings to support decision making, communicating data visualization (graph, charts, histograms), converting data into actionable information.
@@ -645,19 +629,36 @@
 - Docker and containers</t>
   </si>
   <si>
-    <t>_NLP_Similarity_Ranking.ipynb</t>
-  </si>
-  <si>
-    <t>NLP Similarity Ranking</t>
-  </si>
-  <si>
     <t>_Natural_Language_Processing_Introduction.ipynb</t>
   </si>
   <si>
-    <t>- Introduction to using similarity metrics for ranking text data.</t>
-  </si>
-  <si>
     <t>- Introduction to natural language processing (NLP).</t>
+  </si>
+  <si>
+    <t>27a</t>
+  </si>
+  <si>
+    <t>_Clustering_Customer_Segmentation</t>
+  </si>
+  <si>
+    <t>- Example of unsupervised ML Clustering with customer data.</t>
+  </si>
+  <si>
+    <t>28a_NLP_Similarity_Ranking.ipynb</t>
+  </si>
+  <si>
+    <t>28a</t>
+  </si>
+  <si>
+    <t>- Introduction to similarity ranking.</t>
+  </si>
+  <si>
+    <t>Excercise Class Discussion: Generative AI Essay:
+Use any of the text generative AI tools (e.g., Bing Chat, ChatGPT) to develop an essay, 1 to 3 pages long, that discuss the following questions: (1) What is data science? (2) Discuss some ethical concerns with the use of data science tools (e.g., AI/ML/NLP). 
+(3) How should I reference AI-generated outputs? (4) Is it legal to use generative AI? (5) Is it Ethical to use generative AI? (6) Write a Poem of the topic of your choosing. Include References.</t>
+  </si>
+  <si>
+    <t>Release HW 6: Due 2 weeks</t>
   </si>
 </sst>
 </file>
@@ -703,7 +704,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -726,12 +727,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -761,12 +788,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1076,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,13 +1139,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1108,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1116,16 +1162,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1140,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>4</v>
@@ -1151,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="174" x14ac:dyDescent="0.35">
@@ -1175,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
@@ -1186,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
@@ -1194,16 +1240,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
@@ -1211,10 +1257,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1229,10 +1275,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1240,17 +1286,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="8">
         <f>C9+1</f>
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -1258,17 +1304,17 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8">
         <f>C10+1</f>
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="145" x14ac:dyDescent="0.35">
@@ -1276,20 +1322,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12" si="0">C11+1</f>
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -1297,13 +1343,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1311,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1326,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1337,17 +1383,17 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
         <v>11</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1355,17 +1401,17 @@
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="8">
         <f>C16+1</f>
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>7</v>
@@ -1376,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1399,10 +1445,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="290" x14ac:dyDescent="0.35">
@@ -1410,17 +1456,17 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" s="8">
         <f>C20+1</f>
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1428,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1436,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1449,20 +1495,20 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="8">
         <f>C21+1</f>
         <v>15</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="174" x14ac:dyDescent="0.35">
@@ -1470,20 +1516,20 @@
         <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26" s="8">
         <f>C25+1</f>
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1491,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
@@ -1509,25 +1555,24 @@
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>7</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="8">
-        <f>C28+1</f>
-        <v>18</v>
+        <v>98</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F29" s="10"/>
     </row>
@@ -1536,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F30" s="10"/>
     </row>
@@ -1545,16 +1590,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F31" s="10"/>
     </row>
@@ -1563,16 +1608,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1585,17 +1630,17 @@
         <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" s="8">
-        <f>C29+1</f>
+        <f>18+1</f>
         <v>19</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1603,17 +1648,17 @@
         <v>9</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="8">
         <f>C34+1</f>
         <v>20</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1621,17 +1666,17 @@
         <v>9</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="8">
         <f>C35+1</f>
         <v>21</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1639,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1650,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1658,20 +1703,20 @@
         <v>10</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="8">
         <f>C36+1</f>
         <v>22</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1679,17 +1724,17 @@
         <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="8">
         <f>C39+1</f>
         <v>23</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1702,17 +1747,17 @@
         <v>11</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C42" s="8">
         <f>C40+1</f>
         <v>24</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -1720,20 +1765,20 @@
         <v>11</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" s="8">
         <f>C42+1</f>
         <v>25</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1741,336 +1786,334 @@
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C44" s="8">
         <f>C43+1</f>
         <v>26</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="A45" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+      <c r="B45" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
         <v>12</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="B47" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="8">
         <f>C44+1</f>
         <v>27</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>13</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="8">
+        <v>28</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>13</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
+        <v>14</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="8">
+        <f>C53+1</f>
+        <v>29</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
-        <v>12</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
-        <v>12</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="8">
-        <f>C46+1</f>
-        <v>28</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>12</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
-        <v>13</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="8">
-        <f>C48+1</f>
-        <v>29</v>
-      </c>
-      <c r="D50" s="7" t="s">
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>15</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="8">
+        <f>C44+1</f>
         <v>27</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
-        <v>13</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
-        <v>13</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>55</v>
+        <v>120</v>
+      </c>
+      <c r="C53" s="8">
+        <f>C52+1</f>
+        <v>28</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
-        <v>14</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>15</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="8">
-        <f>C50+1</f>
+        <v>153</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>15</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="9">
+        <v>15</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
-        <v>14</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
-        <v>15</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="8">
-        <v>31</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
-        <v>15</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="8">
-        <v>32</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
-        <v>128</v>
+      <c r="A57" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>43</v>
+        <v>105</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>"MOD(ROW($A)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD21 A22:B23 D22:XFD23 A24:XFD60 A61:D61 F61:XFD61 A62:XFD1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A1:XFD21 A22:B23 D22:XFD23 A61:D61 F61:XFD61 C48:XFD48 A49:XFD49 A52:E52 A24:XFD47 A51:XFD51 A50 C50:XFD50 A53:XFD60 A62:XFD1048576">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD($A1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B15:B16 B18">
-    <cfRule type="expression" priority="5">
+    <cfRule type="expression" priority="7">
       <formula>"MOD($A)=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>MOD($A23,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>MOD(#REF!,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:XFD53">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>MOD(#REF!,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
